--- a/Data/Experiment Result/Estimate R.xlsx
+++ b/Data/Experiment Result/Estimate R.xlsx
@@ -21,12 +21,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>R</t>
   </si>
   <si>
     <t>RMSE</t>
+  </si>
+  <si>
+    <t>R = 1.04</t>
+  </si>
+  <si>
+    <t>R = 1.03</t>
+  </si>
+  <si>
+    <t>R = 1.1</t>
+  </si>
+  <si>
+    <t>R = 1.8</t>
+  </si>
+  <si>
+    <t>R = 1.42</t>
+  </si>
+  <si>
+    <t>R=1.7</t>
+  </si>
+  <si>
+    <t>R = 1.01</t>
+  </si>
+  <si>
+    <t>R = 1.02</t>
   </si>
 </sst>
 </file>
@@ -76,6 +100,486 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4943475" y="0"/>
+          <a:ext cx="5400675" cy="5153025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3067050" y="0"/>
+          <a:ext cx="5314950" cy="5124450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4533900" y="0"/>
+          <a:ext cx="5276850" cy="5248275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4333875" y="0"/>
+          <a:ext cx="5324475" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4791075" y="0"/>
+          <a:ext cx="5248275" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4562475" y="0"/>
+          <a:ext cx="5219700" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4905375" y="0"/>
+          <a:ext cx="5343525" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5686425" y="0"/>
+          <a:ext cx="5286375" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +1005,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.37</v>
       </c>
@@ -509,7 +1013,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.36</v>
       </c>
@@ -517,7 +1021,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.35</v>
       </c>
@@ -525,7 +1029,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.34</v>
       </c>
@@ -533,7 +1037,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.33</v>
       </c>
@@ -541,7 +1045,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.32</v>
       </c>
@@ -549,7 +1053,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.31</v>
       </c>
@@ -557,7 +1061,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.3</v>
       </c>
@@ -565,7 +1069,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.29</v>
       </c>
@@ -573,7 +1077,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.28</v>
       </c>
@@ -581,7 +1085,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.27</v>
       </c>
@@ -589,7 +1093,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.26</v>
       </c>
@@ -597,7 +1101,7 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.25</v>
       </c>
@@ -605,15 +1109,18 @@
         <v>0.45468256276108499</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.24</v>
       </c>
       <c r="B30">
         <v>0.45468256276108499</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.23</v>
       </c>
@@ -621,7 +1128,7 @@
         <v>0.52601425555204495</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.22</v>
       </c>
@@ -800,15 +1307,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +1449,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.81</v>
       </c>
@@ -949,7 +1457,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.8</v>
       </c>
@@ -957,7 +1465,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.79</v>
       </c>
@@ -965,7 +1473,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.78</v>
       </c>
@@ -973,7 +1481,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.77</v>
       </c>
@@ -981,7 +1489,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.76</v>
       </c>
@@ -989,7 +1497,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.75</v>
       </c>
@@ -997,7 +1505,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.74</v>
       </c>
@@ -1005,7 +1513,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.73</v>
       </c>
@@ -1013,7 +1521,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.72</v>
       </c>
@@ -1021,7 +1529,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.71</v>
       </c>
@@ -1029,7 +1537,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.7</v>
       </c>
@@ -1037,15 +1545,18 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.69</v>
       </c>
       <c r="B29">
         <v>82.679768111769505</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.68</v>
       </c>
@@ -1053,7 +1564,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.67</v>
       </c>
@@ -1061,7 +1572,7 @@
         <v>82.679768111769505</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.66</v>
       </c>
@@ -2399,15 +2910,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,17 +3020,23 @@
         <v>0.62111040902430503</v>
       </c>
     </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +3169,7 @@
         <v>53.800050676962897</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.2200000000000002</v>
       </c>
@@ -2659,7 +3177,7 @@
         <v>53.736799413525802</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.12</v>
       </c>
@@ -2667,7 +3185,7 @@
         <v>48.966068773043197</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.02</v>
       </c>
@@ -2675,7 +3193,7 @@
         <v>45.733297114368398</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.92</v>
       </c>
@@ -2683,7 +3201,7 @@
         <v>43.275089145787597</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.82</v>
       </c>
@@ -2691,7 +3209,7 @@
         <v>40.850308089928298</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.72</v>
       </c>
@@ -2699,7 +3217,7 @@
         <v>32.365729921549303</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.62</v>
       </c>
@@ -2707,7 +3225,7 @@
         <v>29.786101870308499</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.52</v>
       </c>
@@ -2715,7 +3233,7 @@
         <v>26.861922134289198</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.42</v>
       </c>
@@ -2723,7 +3241,7 @@
         <v>23.717439794756601</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.32</v>
       </c>
@@ -2731,7 +3249,7 @@
         <v>21.439290268773799</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.22</v>
       </c>
@@ -2739,7 +3257,7 @@
         <v>21.056889886639599</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.1200000000000001</v>
       </c>
@@ -2747,25 +3265,29 @@
         <v>19.4685644059109</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.02</v>
       </c>
       <c r="B29">
         <v>14.1309372694973</v>
       </c>
+      <c r="J29" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +3420,7 @@
         <v>254.33769835475599</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2906,17 +3428,23 @@
         <v>183.49795832115299</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3577,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.33</v>
       </c>
@@ -3057,7 +3585,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.32</v>
       </c>
@@ -3065,7 +3593,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.31</v>
       </c>
@@ -3073,7 +3601,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.3</v>
       </c>
@@ -3081,7 +3609,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.29</v>
       </c>
@@ -3089,7 +3617,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.28</v>
       </c>
@@ -3097,7 +3625,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.27</v>
       </c>
@@ -3105,7 +3633,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.26</v>
       </c>
@@ -3113,7 +3641,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.25</v>
       </c>
@@ -3121,7 +3649,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.24</v>
       </c>
@@ -3129,7 +3657,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.23</v>
       </c>
@@ -3137,7 +3665,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.22</v>
       </c>
@@ -3145,7 +3673,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.21</v>
       </c>
@@ -3153,7 +3681,7 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.2</v>
       </c>
@@ -3161,15 +3689,18 @@
         <v>0.62293972012675503</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.19</v>
       </c>
       <c r="B31">
         <v>0.62293972012675503</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.18</v>
       </c>
@@ -4923,15 +5454,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5016,17 +5548,23 @@
         <v>0.14968257613819599</v>
       </c>
     </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,7 +5697,7 @@
         <v>1.95503090809733</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.12</v>
       </c>
@@ -5167,7 +5705,7 @@
         <v>1.95503090809733</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.11</v>
       </c>
@@ -5175,7 +5713,7 @@
         <v>1.95503090809733</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.1</v>
       </c>
@@ -5183,7 +5721,7 @@
         <v>1.95503090809733</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.09</v>
       </c>
@@ -5191,7 +5729,7 @@
         <v>1.95503090809733</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.08</v>
       </c>
@@ -5199,7 +5737,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.07</v>
       </c>
@@ -5207,7 +5745,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.06</v>
       </c>
@@ -5215,7 +5753,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.05</v>
       </c>
@@ -5223,7 +5761,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.04</v>
       </c>
@@ -5231,7 +5769,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.03</v>
       </c>
@@ -5239,7 +5777,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.02</v>
       </c>
@@ -5247,7 +5785,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.01</v>
       </c>
@@ -5255,7 +5793,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5263,15 +5801,18 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.99</v>
       </c>
       <c r="B30">
         <v>1.5560818110872601</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.98</v>
       </c>
@@ -5279,7 +5820,7 @@
         <v>1.5560818110872601</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.97</v>
       </c>
@@ -6865,5 +7406,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>